--- a/data/IKPA_SEPTEMBER_2025.xlsx
+++ b/data/IKPA_SEPTEMBER_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,26 +539,6 @@
           <t>Tahun</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Peringkat</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Uraian Satker Final</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Satker</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Source</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -636,28 +616,10 @@
       <c r="U2" t="n">
         <v>2025</v>
       </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>PA MARTAPURA</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>PA MARTAPURA (401944)</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -666,17 +628,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>137</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>403409</t>
+          <t>692339</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>PENGADILAN AGAMA MARTAPURA</t>
+          <t>RUTAN KELAS II B BATURAJA</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -730,29 +692,11 @@
       </c>
       <c r="U3" t="n">
         <v>2025</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2</v>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>PA MARTAPURA</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>PA MARTAPURA (403409)</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -761,17 +705,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>015</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>401945</t>
+          <t>527975</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PENGADILAN AGAMA MUARADUA</t>
+          <t>KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -793,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="L4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>100</v>
@@ -805,11 +749,11 @@
         <v>100</v>
       </c>
       <c r="P4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R4" t="n">
@@ -825,29 +769,11 @@
       </c>
       <c r="U4" t="n">
         <v>2025</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3</v>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>PA MUARADUA</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>PA MUARADUA (401945)</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -856,17 +782,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>692339</t>
+          <t>440507</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>RUTAN KELAS II B BATURAJA</t>
+          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -888,10 +814,10 @@
         <v>100</v>
       </c>
       <c r="L5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>100</v>
@@ -900,11 +826,11 @@
         <v>100</v>
       </c>
       <c r="P5" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R5" t="n">
@@ -920,29 +846,11 @@
       </c>
       <c r="U5" t="n">
         <v>2025</v>
-      </c>
-      <c r="V5" t="n">
-        <v>4</v>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>RUTAN BATURAJA</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>RUTAN BATURAJA (692339)</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -951,17 +859,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>054</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>402268</t>
+          <t>428258</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PENGADILAN AGAMA BATURAJA</t>
+          <t>BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1015,29 +923,11 @@
       </c>
       <c r="U6" t="n">
         <v>2025</v>
-      </c>
-      <c r="V6" t="n">
-        <v>5</v>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>PA BATURAJA</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>PA BATURAJA (402268)</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1046,17 +936,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>015</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>402267</t>
+          <t>410574</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PENGADILAN AGAMA BATURAJA</t>
+          <t>KANTOR PELAYANAN PAJAK PRATAMA BATURAJA</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1110,29 +1000,11 @@
       </c>
       <c r="U7" t="n">
         <v>2025</v>
-      </c>
-      <c r="V7" t="n">
-        <v>6</v>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>PA BATURAJA</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>PA BATURAJA (402267)</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1141,17 +1013,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>015</t>
+          <t>005</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>410574</t>
+          <t>403409</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>KANTOR PELAYANAN PAJAK PRATAMA BATURAJA</t>
+          <t>PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -1205,29 +1077,11 @@
       </c>
       <c r="U8" t="n">
         <v>2025</v>
-      </c>
-      <c r="V8" t="n">
-        <v>7</v>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>KPP BATURAJA</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>KPP BATURAJA (410574)</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1236,17 +1090,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>005</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>428258</t>
+          <t>402268</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
+          <t>PENGADILAN AGAMA BATURAJA</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1300,29 +1154,11 @@
       </c>
       <c r="U9" t="n">
         <v>2025</v>
-      </c>
-      <c r="V9" t="n">
-        <v>8</v>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>BPS OKU</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>BPS OKU (428258)</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1331,17 +1167,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>005</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>440507</t>
+          <t>402267</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA KAB. OGAN KOMERING ULU SELATAN</t>
+          <t>PENGADILAN AGAMA BATURAJA</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -1363,10 +1199,10 @@
         <v>100</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N10" t="n">
         <v>100</v>
@@ -1375,11 +1211,11 @@
         <v>100</v>
       </c>
       <c r="P10" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R10" t="n">
@@ -1395,29 +1231,11 @@
       </c>
       <c r="U10" t="n">
         <v>2025</v>
-      </c>
-      <c r="V10" t="n">
-        <v>9</v>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUS</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUS (440507)</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1426,17 +1244,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>015</t>
+          <t>005</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>527975</t>
+          <t>401945</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
+          <t>PENGADILAN AGAMA MUARADUA</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1458,10 +1276,10 @@
         <v>100</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N11" t="n">
         <v>100</v>
@@ -1470,11 +1288,11 @@
         <v>100</v>
       </c>
       <c r="P11" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R11" t="n">
@@ -1490,24 +1308,6 @@
       </c>
       <c r="U11" t="n">
         <v>2025</v>
-      </c>
-      <c r="V11" t="n">
-        <v>10</v>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>KPPN BATURAJA</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>KPPN BATURAJA (527975)</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
       </c>
     </row>
     <row r="12">
@@ -1586,24 +1386,6 @@
       <c r="U12" t="n">
         <v>2025</v>
       </c>
-      <c r="V12" t="n">
-        <v>11</v>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUS</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUS (440505)</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1681,24 +1463,6 @@
       <c r="U13" t="n">
         <v>2025</v>
       </c>
-      <c r="V13" t="n">
-        <v>12</v>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>BPS OKUT</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>BPS OKUT (668529)</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1776,24 +1540,6 @@
       <c r="U14" t="n">
         <v>2025</v>
       </c>
-      <c r="V14" t="n">
-        <v>13</v>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>POLRES OKUS</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>POLRES OKUS (665307)</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1871,24 +1617,6 @@
       <c r="U15" t="n">
         <v>2025</v>
       </c>
-      <c r="V15" t="n">
-        <v>14</v>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>BPS OKUS</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>BPS OKUS (667215)</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1966,24 +1694,6 @@
       <c r="U16" t="n">
         <v>2025</v>
       </c>
-      <c r="V16" t="n">
-        <v>15</v>
-      </c>
-      <c r="W16" t="inlineStr">
-        <is>
-          <t>POLRES OKU</t>
-        </is>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>POLRES OKU (641681)</t>
-        </is>
-      </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2061,24 +1771,6 @@
       <c r="U17" t="n">
         <v>2025</v>
       </c>
-      <c r="V17" t="n">
-        <v>16</v>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>BAPAS OKU INDUK</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>BAPAS OKU INDUK (692625)</t>
-        </is>
-      </c>
-      <c r="Y17" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -2156,24 +1848,6 @@
       <c r="U18" t="n">
         <v>2025</v>
       </c>
-      <c r="V18" t="n">
-        <v>17</v>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUS</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUS (440506)</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -2251,24 +1925,6 @@
       <c r="U19" t="n">
         <v>2025</v>
       </c>
-      <c r="V19" t="n">
-        <v>18</v>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>MTSN 4 OKUT</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>MTSN 4 OKUT (597480)</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2346,24 +2002,6 @@
       <c r="U20" t="n">
         <v>2025</v>
       </c>
-      <c r="V20" t="n">
-        <v>19</v>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUS</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUS (440504)</t>
-        </is>
-      </c>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2441,24 +2079,6 @@
       <c r="U21" t="n">
         <v>2025</v>
       </c>
-      <c r="V21" t="n">
-        <v>20</v>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>MTSN 3 OKUT</t>
-        </is>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>MTSN 3 OKUT (553099)</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2536,24 +2156,6 @@
       <c r="U22" t="n">
         <v>2025</v>
       </c>
-      <c r="V22" t="n">
-        <v>21</v>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUT</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUT (111071)</t>
-        </is>
-      </c>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2631,24 +2233,6 @@
       <c r="U23" t="n">
         <v>2025</v>
       </c>
-      <c r="V23" t="n">
-        <v>22</v>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>KEMENAG OKU</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>KEMENAG OKU (418456)</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2726,24 +2310,6 @@
       <c r="U24" t="n">
         <v>2025</v>
       </c>
-      <c r="V24" t="n">
-        <v>23</v>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>POLRES OKUT</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>POLRES OKUT (665292)</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2821,24 +2387,6 @@
       <c r="U25" t="n">
         <v>2025</v>
       </c>
-      <c r="V25" t="n">
-        <v>24</v>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>BPN OKUT</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>BPN OKUT (669055)</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2916,24 +2464,6 @@
       <c r="U26" t="n">
         <v>2025</v>
       </c>
-      <c r="V26" t="n">
-        <v>25</v>
-      </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>PUSLATPUR AD</t>
-        </is>
-      </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>PUSLATPUR AD (685001)</t>
-        </is>
-      </c>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2951,7 +2481,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>'007130</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3010,24 +2540,6 @@
       </c>
       <c r="U27" t="n">
         <v>2025</v>
-      </c>
-      <c r="V27" t="n">
-        <v>26</v>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>KEJARI  OKU</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>KEJARI  OKU ('007130)</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
       </c>
     </row>
     <row r="28">
@@ -3106,24 +2618,6 @@
       <c r="U28" t="n">
         <v>2025</v>
       </c>
-      <c r="V28" t="n">
-        <v>27</v>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>MTSN 2 OKUT</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>MTSN 2 OKUT (418471)</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -3141,7 +2635,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>'007190</t>
+          <t>007190</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3200,24 +2694,6 @@
       </c>
       <c r="U29" t="n">
         <v>2025</v>
-      </c>
-      <c r="V29" t="n">
-        <v>28</v>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>KEJARI OKUT</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>KEJARI OKUT ('007190)</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
       </c>
     </row>
     <row r="30">
@@ -3296,24 +2772,6 @@
       <c r="U30" t="n">
         <v>2025</v>
       </c>
-      <c r="V30" t="n">
-        <v>29</v>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>KPU OKUT</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
-        <is>
-          <t>KPU OKUT (656560)</t>
-        </is>
-      </c>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -3391,24 +2849,6 @@
       <c r="U31" t="n">
         <v>2025</v>
       </c>
-      <c r="V31" t="n">
-        <v>30</v>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUT</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUT (666505)</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -3426,7 +2866,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>'098963</t>
+          <t>098963</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3485,24 +2925,6 @@
       </c>
       <c r="U32" t="n">
         <v>2025</v>
-      </c>
-      <c r="V32" t="n">
-        <v>31</v>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>PN BATURAJA</t>
-        </is>
-      </c>
-      <c r="X32" t="inlineStr">
-        <is>
-          <t>PN BATURAJA ('098963)</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
       </c>
     </row>
     <row r="33">
@@ -3581,24 +3003,6 @@
       <c r="U33" t="n">
         <v>2025</v>
       </c>
-      <c r="V33" t="n">
-        <v>32</v>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>LAPAS MUARA DUA</t>
-        </is>
-      </c>
-      <c r="X33" t="inlineStr">
-        <is>
-          <t>LAPAS MUARA DUA (692334)</t>
-        </is>
-      </c>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3676,24 +3080,6 @@
       <c r="U34" t="n">
         <v>2025</v>
       </c>
-      <c r="V34" t="n">
-        <v>33</v>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>KPU OKU</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>KPU OKU (656553)</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3771,24 +3157,6 @@
       <c r="U35" t="n">
         <v>2025</v>
       </c>
-      <c r="V35" t="n">
-        <v>34</v>
-      </c>
-      <c r="W35" t="inlineStr">
-        <is>
-          <t>MTSN 2 OKUS</t>
-        </is>
-      </c>
-      <c r="X35" t="inlineStr">
-        <is>
-          <t>MTSN 2 OKUS (418462)</t>
-        </is>
-      </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3866,24 +3234,6 @@
       <c r="U36" t="n">
         <v>2025</v>
       </c>
-      <c r="V36" t="n">
-        <v>35</v>
-      </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>LAPAS MARTAPURA</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr">
-        <is>
-          <t>LAPAS MARTAPURA (692340)</t>
-        </is>
-      </c>
-      <c r="Y36" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3961,24 +3311,6 @@
       <c r="U37" t="n">
         <v>2025</v>
       </c>
-      <c r="V37" t="n">
-        <v>36</v>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>BPN OKUS</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>BPN OKUS (670561)</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -4056,24 +3388,6 @@
       <c r="U38" t="n">
         <v>2025</v>
       </c>
-      <c r="V38" t="n">
-        <v>37</v>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUT</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUT (666504)</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -4151,24 +3465,6 @@
       <c r="U39" t="n">
         <v>2025</v>
       </c>
-      <c r="V39" t="n">
-        <v>38</v>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>MTSN 4 OKUS</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>MTSN 4 OKUS (661192)</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -4246,24 +3542,6 @@
       <c r="U40" t="n">
         <v>2025</v>
       </c>
-      <c r="V40" t="n">
-        <v>39</v>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>KPU OKUS</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>KPU OKUS (656574)</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -4341,24 +3619,6 @@
       <c r="U41" t="n">
         <v>2025</v>
       </c>
-      <c r="V41" t="n">
-        <v>40</v>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUS</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUS (440503)</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -4436,24 +3696,6 @@
       <c r="U42" t="n">
         <v>2025</v>
       </c>
-      <c r="V42" t="n">
-        <v>41</v>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>MTSN 1 OKUT</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>MTSN 1 OKUT (424967)</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -4531,24 +3773,6 @@
       <c r="U43" t="n">
         <v>2025</v>
       </c>
-      <c r="V43" t="n">
-        <v>42</v>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>BPN OKU</t>
-        </is>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>BPN OKU (431142)</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -4626,24 +3850,6 @@
       <c r="U44" t="n">
         <v>2025</v>
       </c>
-      <c r="V44" t="n">
-        <v>43</v>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUS</t>
-        </is>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUS (440502)</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -4721,24 +3927,6 @@
       <c r="U45" t="n">
         <v>2025</v>
       </c>
-      <c r="V45" t="n">
-        <v>44</v>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>MTSN 1 OKU</t>
-        </is>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>MTSN 1 OKU (426050)</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4816,24 +4004,6 @@
       <c r="U46" t="n">
         <v>2025</v>
       </c>
-      <c r="V46" t="n">
-        <v>45</v>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>RUPBASAN BATURAJA</t>
-        </is>
-      </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>RUPBASAN BATURAJA (692725)</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4911,24 +4081,6 @@
       <c r="U47" t="n">
         <v>2025</v>
       </c>
-      <c r="V47" t="n">
-        <v>46</v>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>MAN 2 OKUS</t>
-        </is>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>MAN 2 OKUS (597558)</t>
-        </is>
-      </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -5006,24 +4158,6 @@
       <c r="U48" t="n">
         <v>2025</v>
       </c>
-      <c r="V48" t="n">
-        <v>47</v>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>MAN 1 OKUS</t>
-        </is>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>MAN 1 OKUS (662127)</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -5101,24 +4235,6 @@
       <c r="U49" t="n">
         <v>2025</v>
       </c>
-      <c r="V49" t="n">
-        <v>48</v>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>MAN 1 OKUT</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>MAN 1 OKUT (426066)</t>
-        </is>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -5196,24 +4312,6 @@
       <c r="U50" t="n">
         <v>2025</v>
       </c>
-      <c r="V50" t="n">
-        <v>49</v>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>KEMENAG OKU</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>KEMENAG OKU (418459)</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -5291,28 +4389,10 @@
       <c r="U51" t="n">
         <v>2025</v>
       </c>
-      <c r="V51" t="n">
-        <v>50</v>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>MTSN 1 OKUS</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>MTSN 1 OKUS (553792)</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -5321,55 +4401,55 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>006</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>666503</t>
+          <t>007208</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
+          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>87.17</v>
+        <v>88.88</v>
       </c>
       <c r="G52" t="n">
-        <v>98.23999999999999</v>
+        <v>100</v>
       </c>
       <c r="H52" t="n">
-        <v>100</v>
+        <v>90.56</v>
       </c>
       <c r="I52" t="n">
         <v>100</v>
       </c>
       <c r="J52" t="n">
-        <v>74.33</v>
+        <v>77.76000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>96.47</v>
+        <v>100</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N52" t="n">
         <v>100</v>
       </c>
       <c r="O52" t="n">
-        <v>100</v>
+        <v>90.56</v>
       </c>
       <c r="P52" t="n">
-        <v>75.44</v>
+        <v>94.3</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="R52" t="n">
@@ -5386,28 +4466,10 @@
       <c r="U52" t="n">
         <v>2025</v>
       </c>
-      <c r="V52" t="n">
-        <v>51</v>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUT</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUT (666503)</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -5416,55 +4478,55 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>025</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>'007208</t>
+          <t>666503</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
+          <t>KANTOR KEMENTERIAN AGAMA OKU TIMUR</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>88.88</v>
+        <v>87.17</v>
       </c>
       <c r="G53" t="n">
-        <v>100</v>
+        <v>98.23999999999999</v>
       </c>
       <c r="H53" t="n">
-        <v>90.56</v>
+        <v>100</v>
       </c>
       <c r="I53" t="n">
         <v>100</v>
       </c>
       <c r="J53" t="n">
-        <v>77.76000000000001</v>
+        <v>74.33</v>
       </c>
       <c r="K53" t="n">
-        <v>100</v>
+        <v>96.47</v>
       </c>
       <c r="L53" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
         <v>100</v>
       </c>
       <c r="O53" t="n">
-        <v>90.56</v>
+        <v>100</v>
       </c>
       <c r="P53" t="n">
-        <v>94.3</v>
+        <v>75.44</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>80%</t>
         </is>
       </c>
       <c r="R53" t="n">
@@ -5480,24 +4542,6 @@
       </c>
       <c r="U53" t="n">
         <v>2025</v>
-      </c>
-      <c r="V53" t="n">
-        <v>52</v>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>KEJARI  OKUS</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>KEJARI  OKUS ('007208)</t>
-        </is>
-      </c>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
       </c>
     </row>
     <row r="54">
@@ -5576,24 +4620,6 @@
       <c r="U54" t="n">
         <v>2025</v>
       </c>
-      <c r="V54" t="n">
-        <v>53</v>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>KEMENAG OKU</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>KEMENAG OKU (418458)</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5671,24 +4697,6 @@
       <c r="U55" t="n">
         <v>2025</v>
       </c>
-      <c r="V55" t="n">
-        <v>54</v>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>RUMKIT NOESMIR</t>
-        </is>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>RUMKIT NOESMIR (344894)</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -5766,24 +4774,6 @@
       <c r="U56" t="n">
         <v>2025</v>
       </c>
-      <c r="V56" t="n">
-        <v>55</v>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>BNN OKUT</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>BNN OKUT (111079)</t>
-        </is>
-      </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -5861,24 +4851,6 @@
       <c r="U57" t="n">
         <v>2025</v>
       </c>
-      <c r="V57" t="n">
-        <v>56</v>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>LOKA LABKESMAS</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>LOKA LABKESMAS (690801)</t>
-        </is>
-      </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -5956,24 +4928,6 @@
       <c r="U58" t="n">
         <v>2025</v>
       </c>
-      <c r="V58" t="n">
-        <v>57</v>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUT</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUT (666501)</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -6051,24 +5005,6 @@
       <c r="U59" t="n">
         <v>2025</v>
       </c>
-      <c r="V59" t="n">
-        <v>58</v>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>BAWASLU OKU</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>BAWASLU OKU (419006)</t>
-        </is>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -6146,24 +5082,6 @@
       <c r="U60" t="n">
         <v>2025</v>
       </c>
-      <c r="V60" t="n">
-        <v>59</v>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>BAWASLU OKUS</t>
-        </is>
-      </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>BAWASLU OKUS (686503)</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -6241,24 +5159,6 @@
       <c r="U61" t="n">
         <v>2025</v>
       </c>
-      <c r="V61" t="n">
-        <v>60</v>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>PA  MUARADUA</t>
-        </is>
-      </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>PA  MUARADUA (403410)</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -6336,24 +5236,6 @@
       <c r="U62" t="n">
         <v>2025</v>
       </c>
-      <c r="V62" t="n">
-        <v>61</v>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>MTSN 3 OKUS</t>
-        </is>
-      </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>MTSN 3 OKUS (574370)</t>
-        </is>
-      </c>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -6431,24 +5313,6 @@
       <c r="U63" t="n">
         <v>2025</v>
       </c>
-      <c r="V63" t="n">
-        <v>62</v>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUT</t>
-        </is>
-      </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUT (666507)</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -6466,7 +5330,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>'099228</t>
+          <t>099228</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -6525,24 +5389,6 @@
       </c>
       <c r="U64" t="n">
         <v>2025</v>
-      </c>
-      <c r="V64" t="n">
-        <v>63</v>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>PN BATURAJA</t>
-        </is>
-      </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>PN BATURAJA ('099228)</t>
-        </is>
-      </c>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
       </c>
     </row>
     <row r="65">
@@ -6621,24 +5467,6 @@
       <c r="U65" t="n">
         <v>2025</v>
       </c>
-      <c r="V65" t="n">
-        <v>64</v>
-      </c>
-      <c r="W65" t="inlineStr">
-        <is>
-          <t>KEMENAG OKU</t>
-        </is>
-      </c>
-      <c r="X65" t="inlineStr">
-        <is>
-          <t>KEMENAG OKU (418457)</t>
-        </is>
-      </c>
-      <c r="Y65" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -6716,24 +5544,6 @@
       <c r="U66" t="n">
         <v>2025</v>
       </c>
-      <c r="V66" t="n">
-        <v>65</v>
-      </c>
-      <c r="W66" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUT</t>
-        </is>
-      </c>
-      <c r="X66" t="inlineStr">
-        <is>
-          <t>KEMENAG OKUT (666502)</t>
-        </is>
-      </c>
-      <c r="Y66" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -6811,24 +5621,6 @@
       <c r="U67" t="n">
         <v>2025</v>
       </c>
-      <c r="V67" t="n">
-        <v>66</v>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>MAN 1 OKU</t>
-        </is>
-      </c>
-      <c r="X67" t="inlineStr">
-        <is>
-          <t>MAN 1 OKU (424245)</t>
-        </is>
-      </c>
-      <c r="Y67" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -6906,24 +5698,6 @@
       <c r="U68" t="n">
         <v>2025</v>
       </c>
-      <c r="V68" t="n">
-        <v>67</v>
-      </c>
-      <c r="W68" t="inlineStr">
-        <is>
-          <t>KEMENAG OKU</t>
-        </is>
-      </c>
-      <c r="X68" t="inlineStr">
-        <is>
-          <t>KEMENAG OKU (418461)</t>
-        </is>
-      </c>
-      <c r="Y68" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -7000,24 +5774,6 @@
       </c>
       <c r="U69" t="n">
         <v>2025</v>
-      </c>
-      <c r="V69" t="n">
-        <v>68</v>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>DISNAKERTRANS OKUT</t>
-        </is>
-      </c>
-      <c r="X69" t="inlineStr">
-        <is>
-          <t>DISNAKERTRANS OKUT (691653)</t>
-        </is>
-      </c>
-      <c r="Y69" t="inlineStr">
-        <is>
-          <t>Upload</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/data/IKPA_SEPTEMBER_2025.xlsx
+++ b/data/IKPA_SEPTEMBER_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U69"/>
+  <dimension ref="A1:X69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,6 +539,21 @@
           <t>Tahun</t>
         </is>
       </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Uraian Satker-RINGKAS</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Uraian Satker Final</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Satker</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -616,6 +631,21 @@
       <c r="U2" t="n">
         <v>2025</v>
       </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>PA MARTAPURA</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>PA MARTAPURA</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>PA MARTAPURA (401944)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -693,6 +723,21 @@
       <c r="U3" t="n">
         <v>2025</v>
       </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>RUTAN BATURAJA</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>RUTAN BATURAJA</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>RUTAN BATURAJA (692339)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -770,6 +815,21 @@
       <c r="U4" t="n">
         <v>2025</v>
       </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>KPPN BATURAJA</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>KPPN BATURAJA</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>KPPN BATURAJA (527975)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -847,6 +907,21 @@
       <c r="U5" t="n">
         <v>2025</v>
       </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUS</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUS</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUS (440507)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -924,6 +999,21 @@
       <c r="U6" t="n">
         <v>2025</v>
       </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>BPS OKU</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>BPS OKU</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>BPS OKU (428258)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1001,6 +1091,21 @@
       <c r="U7" t="n">
         <v>2025</v>
       </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>KPP BATURAJA</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>KPP BATURAJA</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>KPP BATURAJA (410574)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1078,6 +1183,21 @@
       <c r="U8" t="n">
         <v>2025</v>
       </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>PA MARTAPURA</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>PA MARTAPURA</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>PA MARTAPURA (403409)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1155,6 +1275,21 @@
       <c r="U9" t="n">
         <v>2025</v>
       </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>PA BATURAJA</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>PA BATURAJA</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>PA BATURAJA (402268)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1232,6 +1367,21 @@
       <c r="U10" t="n">
         <v>2025</v>
       </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>PA BATURAJA</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>PA BATURAJA</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>PA BATURAJA (402267)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1309,6 +1459,21 @@
       <c r="U11" t="n">
         <v>2025</v>
       </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>PA MUARADUA</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>PA MUARADUA</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>PA MUARADUA (401945)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1386,6 +1551,21 @@
       <c r="U12" t="n">
         <v>2025</v>
       </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUS</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUS</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUS (440505)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1463,6 +1643,21 @@
       <c r="U13" t="n">
         <v>2025</v>
       </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>BPS OKUT</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>BPS OKUT</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>BPS OKUT (668529)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1540,6 +1735,21 @@
       <c r="U14" t="n">
         <v>2025</v>
       </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>POLRES OKUS</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>POLRES OKUS</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>POLRES OKUS (665307)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1617,6 +1827,21 @@
       <c r="U15" t="n">
         <v>2025</v>
       </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>BPS OKUS</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>BPS OKUS</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>BPS OKUS (667215)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1694,6 +1919,21 @@
       <c r="U16" t="n">
         <v>2025</v>
       </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>POLRES OKU</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>POLRES OKU</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>POLRES OKU (641681)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1771,6 +2011,21 @@
       <c r="U17" t="n">
         <v>2025</v>
       </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>BAPAS OKU INDUK</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>BAPAS OKU INDUK</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>BAPAS OKU INDUK (692625)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1848,6 +2103,21 @@
       <c r="U18" t="n">
         <v>2025</v>
       </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUS</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUS</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUS (440506)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1925,6 +2195,21 @@
       <c r="U19" t="n">
         <v>2025</v>
       </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>MTSN 4 OKUT</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>MTSN 4 OKUT</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>MTSN 4 OKUT (597480)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2002,6 +2287,21 @@
       <c r="U20" t="n">
         <v>2025</v>
       </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUS</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUS</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUS (440504)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -2079,6 +2379,21 @@
       <c r="U21" t="n">
         <v>2025</v>
       </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>MTSN 3 OKUT</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>MTSN 3 OKUT</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>MTSN 3 OKUT (553099)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2156,6 +2471,21 @@
       <c r="U22" t="n">
         <v>2025</v>
       </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUT</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUT</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUT (111071)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -2233,6 +2563,21 @@
       <c r="U23" t="n">
         <v>2025</v>
       </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>KEMENAG OKU</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>KEMENAG OKU</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>KEMENAG OKU (418456)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2310,6 +2655,21 @@
       <c r="U24" t="n">
         <v>2025</v>
       </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>POLRES OKUT</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>POLRES OKUT</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>POLRES OKUT (665292)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2387,6 +2747,21 @@
       <c r="U25" t="n">
         <v>2025</v>
       </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>BPN OKUT</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>BPN OKUT</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>BPN OKUT (669055)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -2464,6 +2839,21 @@
       <c r="U26" t="n">
         <v>2025</v>
       </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>PUSLATPUR AD</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>PUSLATPUR AD</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>PUSLATPUR AD (685001)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -2541,6 +2931,21 @@
       <c r="U27" t="n">
         <v>2025</v>
       </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>KEJARI  OKU</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>KEJARI  OKU</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>KEJARI  OKU (007130)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2618,6 +3023,21 @@
       <c r="U28" t="n">
         <v>2025</v>
       </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>MTSN 2 OKUT</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>MTSN 2 OKUT</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>MTSN 2 OKUT (418471)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2695,6 +3115,21 @@
       <c r="U29" t="n">
         <v>2025</v>
       </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>KEJARI OKUT</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>KEJARI OKUT</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>KEJARI OKUT (007190)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -2772,6 +3207,21 @@
       <c r="U30" t="n">
         <v>2025</v>
       </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>KPU OKUT</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>KPU OKUT</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>KPU OKUT (656560)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -2849,6 +3299,21 @@
       <c r="U31" t="n">
         <v>2025</v>
       </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUT</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUT</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUT (666505)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2926,6 +3391,21 @@
       <c r="U32" t="n">
         <v>2025</v>
       </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>PN BATURAJA</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>PN BATURAJA</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>PN BATURAJA (098963)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3003,6 +3483,21 @@
       <c r="U33" t="n">
         <v>2025</v>
       </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>LAPAS MUARA DUA</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>LAPAS MUARA DUA</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>LAPAS MUARA DUA (692334)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -3080,6 +3575,21 @@
       <c r="U34" t="n">
         <v>2025</v>
       </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>KPU OKU</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>KPU OKU</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>KPU OKU (656553)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -3157,6 +3667,21 @@
       <c r="U35" t="n">
         <v>2025</v>
       </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>MTSN 2 OKUS</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>MTSN 2 OKUS</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>MTSN 2 OKUS (418462)</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -3234,6 +3759,21 @@
       <c r="U36" t="n">
         <v>2025</v>
       </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>LAPAS MARTAPURA</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>LAPAS MARTAPURA</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>LAPAS MARTAPURA (692340)</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -3311,6 +3851,21 @@
       <c r="U37" t="n">
         <v>2025</v>
       </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>BPN OKUS</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>BPN OKUS</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>BPN OKUS (670561)</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3388,6 +3943,21 @@
       <c r="U38" t="n">
         <v>2025</v>
       </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUT</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUT</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUT (666504)</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -3465,6 +4035,21 @@
       <c r="U39" t="n">
         <v>2025</v>
       </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>MTSN 4 OKUS</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>MTSN 4 OKUS</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>MTSN 4 OKUS (661192)</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -3542,6 +4127,21 @@
       <c r="U40" t="n">
         <v>2025</v>
       </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>KPU OKUS</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>KPU OKUS</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>KPU OKUS (656574)</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -3619,6 +4219,21 @@
       <c r="U41" t="n">
         <v>2025</v>
       </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUS</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUS</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUS (440503)</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -3696,6 +4311,21 @@
       <c r="U42" t="n">
         <v>2025</v>
       </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>MTSN 1 OKUT</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>MTSN 1 OKUT</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>MTSN 1 OKUT (424967)</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -3773,6 +4403,21 @@
       <c r="U43" t="n">
         <v>2025</v>
       </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>BPN OKU</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>BPN OKU</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>BPN OKU (431142)</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -3850,6 +4495,21 @@
       <c r="U44" t="n">
         <v>2025</v>
       </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUS</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUS</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUS (440502)</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -3927,6 +4587,21 @@
       <c r="U45" t="n">
         <v>2025</v>
       </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>MTSN 1 OKU</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>MTSN 1 OKU</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>MTSN 1 OKU (426050)</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -4004,6 +4679,21 @@
       <c r="U46" t="n">
         <v>2025</v>
       </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>RUPBASAN BATURAJA</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>RUPBASAN BATURAJA</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>RUPBASAN BATURAJA (692725)</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4081,6 +4771,21 @@
       <c r="U47" t="n">
         <v>2025</v>
       </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>MAN 2 OKUS</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>MAN 2 OKUS</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>MAN 2 OKUS (597558)</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -4158,6 +4863,21 @@
       <c r="U48" t="n">
         <v>2025</v>
       </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>MAN 1 OKUS</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>MAN 1 OKUS</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>MAN 1 OKUS (662127)</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -4235,6 +4955,21 @@
       <c r="U49" t="n">
         <v>2025</v>
       </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>MAN 1 OKUT</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>MAN 1 OKUT</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>MAN 1 OKUT (426066)</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4312,6 +5047,21 @@
       <c r="U50" t="n">
         <v>2025</v>
       </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>KEMENAG OKU</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>KEMENAG OKU</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>KEMENAG OKU (418459)</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -4389,6 +5139,21 @@
       <c r="U51" t="n">
         <v>2025</v>
       </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>MTSN 1 OKUS</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>MTSN 1 OKUS</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>MTSN 1 OKUS (553792)</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -4466,6 +5231,21 @@
       <c r="U52" t="n">
         <v>2025</v>
       </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>KEJARI OKUS</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>KEJARI OKUS</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>KEJARI OKUS (007208)</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -4543,6 +5323,21 @@
       <c r="U53" t="n">
         <v>2025</v>
       </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUT</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUT</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUT (666503)</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -4620,6 +5415,21 @@
       <c r="U54" t="n">
         <v>2025</v>
       </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>KEMENAG OKU</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>KEMENAG OKU</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>KEMENAG OKU (418458)</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -4697,6 +5507,21 @@
       <c r="U55" t="n">
         <v>2025</v>
       </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>RUMKIT NOESMIR</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>RUMKIT NOESMIR</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>RUMKIT NOESMIR (344894)</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -4774,6 +5599,21 @@
       <c r="U56" t="n">
         <v>2025</v>
       </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>BNN OKUT</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>BNN OKUT</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>BNN OKUT (111079)</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -4851,6 +5691,21 @@
       <c r="U57" t="n">
         <v>2025</v>
       </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>LOKA LABKESMAS</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>LOKA LABKESMAS</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>LOKA LABKESMAS (690801)</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -4928,6 +5783,21 @@
       <c r="U58" t="n">
         <v>2025</v>
       </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUT</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUT</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUT (666501)</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -5005,6 +5875,21 @@
       <c r="U59" t="n">
         <v>2025</v>
       </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>BAWASLU OKU</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>BAWASLU OKU</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>BAWASLU OKU (419006)</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -5082,6 +5967,21 @@
       <c r="U60" t="n">
         <v>2025</v>
       </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>BAWASLU OKUS</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>BAWASLU OKUS</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>BAWASLU OKUS (686503)</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -5159,6 +6059,21 @@
       <c r="U61" t="n">
         <v>2025</v>
       </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>PA  MUARADUA</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>PA  MUARADUA</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>PA  MUARADUA (403410)</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -5236,6 +6151,21 @@
       <c r="U62" t="n">
         <v>2025</v>
       </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>MTSN 3 OKUS</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>MTSN 3 OKUS</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>MTSN 3 OKUS (574370)</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -5313,6 +6243,21 @@
       <c r="U63" t="n">
         <v>2025</v>
       </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUT</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUT</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUT (666507)</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -5390,6 +6335,21 @@
       <c r="U64" t="n">
         <v>2025</v>
       </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>PN BATURAJA</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>PN BATURAJA</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>PN BATURAJA (099228)</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -5467,6 +6427,21 @@
       <c r="U65" t="n">
         <v>2025</v>
       </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>KEMENAG OKU</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>KEMENAG OKU</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>KEMENAG OKU (418457)</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -5544,6 +6519,21 @@
       <c r="U66" t="n">
         <v>2025</v>
       </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUT</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUT</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>KEMENAG OKUT (666502)</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -5621,6 +6611,21 @@
       <c r="U67" t="n">
         <v>2025</v>
       </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>MAN 1 OKU</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>MAN 1 OKU</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>MAN 1 OKU (424245)</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -5698,6 +6703,21 @@
       <c r="U68" t="n">
         <v>2025</v>
       </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>KEMENAG OKU</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>KEMENAG OKU</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>KEMENAG OKU (418461)</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -5774,6 +6794,21 @@
       </c>
       <c r="U69" t="n">
         <v>2025</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>DISNAKERTRANS OKUT</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>DISNAKERTRANS OKUT</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>DISNAKERTRANS OKUT (691653)</t>
+        </is>
       </c>
     </row>
   </sheetData>
